--- a/DATA_goal/Junction_Flooding_226.xlsx
+++ b/DATA_goal/Junction_Flooding_226.xlsx
@@ -470,7 +470,7 @@
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>41658.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.24</v>
+        <v>0.52</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.61</v>
+        <v>0.16</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.48</v>
+        <v>0.25</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.05</v>
+        <v>0.31</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.52</v>
+        <v>0.25</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.49</v>
+        <v>0.55</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.55</v>
+        <v>0.16</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.02</v>
+        <v>0.4</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.75</v>
+        <v>0.27</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.11</v>
+        <v>0.11</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>20.09</v>
+        <v>2.01</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.8</v>
+        <v>0.48</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.37</v>
+        <v>0.24</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.89</v>
+        <v>0.39</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.03</v>
+        <v>0.1</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.98</v>
+        <v>0.2</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.15</v>
+        <v>0.12</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.13</v>
+        <v>0.31</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.87</v>
+        <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.13</v>
+        <v>0.31</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.45</v>
+        <v>0.04</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.43</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41658.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>6.46</v>
+        <v>0.65</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.07</v>
+        <v>0.41</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>10.16</v>
+        <v>1.02</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>9.08</v>
+        <v>0.91</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>4.64</v>
+        <v>0.46</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>13.12</v>
+        <v>1.31</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>5.7</v>
+        <v>0.57</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.78</v>
+        <v>0.28</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.18</v>
+        <v>0.52</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.21</v>
+        <v>0.42</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4.18</v>
+        <v>0.42</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.34</v>
+        <v>0.13</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.63</v>
+        <v>0.36</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>6.25</v>
+        <v>0.62</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.16</v>
+        <v>0.32</v>
       </c>
       <c r="R3" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="V3" s="4" t="n">
         <v>0.42</v>
       </c>
-      <c r="S3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>55.17</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>4.15</v>
-      </c>
       <c r="W3" s="4" t="n">
-        <v>7.89</v>
+        <v>0.79</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.73</v>
+        <v>0.37</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>6.66</v>
+        <v>0.67</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.28</v>
+        <v>0.33</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.61</v>
+        <v>0.26</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.18</v>
+        <v>0.32</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>5.45</v>
+        <v>0.55</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.13</v>
+        <v>0.11</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>11.01</v>
+        <v>1.1</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.88</v>
+        <v>0.19</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>4.42</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41658.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T4" s="4" t="n">
         <v>8.619999999999999</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>16.25</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>13.91</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>6.56</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>22.36</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>9.119999999999999</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>86.25</v>
-      </c>
       <c r="U4" s="4" t="n">
-        <v>17.17</v>
+        <v>1.72</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.91</v>
+        <v>0.59</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>11.72</v>
+        <v>1.17</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>5.89</v>
+        <v>0.59</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>11.22</v>
+        <v>1.12</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.99</v>
+        <v>0.5</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.18</v>
+        <v>0.42</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.99</v>
+        <v>0.5</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>7.65</v>
+        <v>0.76</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>19.88</v>
+        <v>1.99</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.04</v>
+        <v>0.3</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.89</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41658.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.96</v>
+        <v>0.5</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.42</v>
+        <v>0.34</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="R5" s="4" t="n">
         <v>0.03</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.27</v>
-      </c>
       <c r="S5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Y5" s="4" t="n">
         <v>0.05</v>
       </c>
-      <c r="T5" s="4" t="n">
-        <v>45.15</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.45</v>
-      </c>
       <c r="Z5" s="4" t="n">
-        <v>7.48</v>
+        <v>0.75</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.8</v>
+        <v>0.28</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.3</v>
+        <v>0.23</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.76</v>
+        <v>0.28</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>4.37</v>
+        <v>0.44</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>14</v>
+        <v>1.4</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.66</v>
+        <v>0.17</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.82</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41658.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>10.8</v>
+        <v>1.08</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>7.89</v>
+        <v>0.79</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>22.04</v>
+        <v>2.2</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>18.52</v>
+        <v>1.85</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>8.4</v>
+        <v>0.84</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>29.7</v>
+        <v>2.97</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>12.25</v>
+        <v>1.22</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>5.62</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>8.74</v>
+        <v>0.87</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>8.960000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>9.26</v>
+        <v>0.93</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>2.61</v>
+        <v>0.26</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>7.93</v>
+        <v>0.79</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>11.81</v>
+        <v>1.18</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>6.61</v>
+        <v>0.66</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>116.11</v>
+        <v>11.61</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>22.61</v>
+        <v>2.26</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>7.63</v>
+        <v>0.76</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>15.34</v>
+        <v>1.53</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>7.92</v>
+        <v>0.79</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.06</v>
+        <v>0.11</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>14.67</v>
+        <v>1.47</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>6.61</v>
+        <v>0.66</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>5.67</v>
+        <v>0.57</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>6.71</v>
+        <v>0.67</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="AE6" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AG6" s="4" t="n">
         <v>0.41</v>
       </c>
-      <c r="AF6" s="4" t="n">
-        <v>26.53</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.15</v>
-      </c>
       <c r="AH6" s="4" t="n">
-        <v>9.24</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41658.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>2.17</v>
+        <v>0.22</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>1.45</v>
+        <v>0.15</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>3.52</v>
+        <v>0.35</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>3.17</v>
+        <v>0.32</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>1.64</v>
+        <v>0.16</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>10.47</v>
+        <v>1.05</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>1.94</v>
+        <v>0.19</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>1.09</v>
+        <v>0.11</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>1.74</v>
+        <v>0.17</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>1.52</v>
+        <v>0.15</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>1.41</v>
+        <v>0.14</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>1.28</v>
+        <v>0.13</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>2.38</v>
+        <v>0.24</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>1.08</v>
+        <v>0.11</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>14.39</v>
+        <v>1.44</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>4.37</v>
+        <v>0.44</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>1.43</v>
+        <v>0.14</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>3.12</v>
+        <v>0.31</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>1.4</v>
+        <v>0.14</v>
       </c>
       <c r="Y7" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AB7" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AC7" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AD7" s="4" t="n">
         <v>0.19</v>
       </c>
-      <c r="Z7" s="4" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.89</v>
-      </c>
       <c r="AE7" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>9.77</v>
+        <v>0.98</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>0.65</v>
+        <v>0.06</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>1.54</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41658.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>21.82</v>
+        <v>2.18</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>16.24</v>
+        <v>1.62</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>46.43</v>
+        <v>4.64</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>38.61</v>
+        <v>3.86</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>17.11</v>
+        <v>1.71</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>60.39</v>
+        <v>6.04</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>25.83</v>
+        <v>2.58</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>11.69</v>
+        <v>1.17</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>17.7</v>
+        <v>1.77</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>18.73</v>
+        <v>1.87</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>19.63</v>
+        <v>1.96</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>5.41</v>
+        <v>0.54</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>16.72</v>
+        <v>1.67</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>24.24</v>
+        <v>2.42</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>13.86</v>
+        <v>1.39</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>248.93</v>
+        <v>24.89</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>46.95</v>
+        <v>4.7</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>15.64</v>
+        <v>1.56</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>31.84</v>
+        <v>3.18</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>16.64</v>
+        <v>1.66</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.21</v>
+        <v>0.22</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>30.24</v>
+        <v>3.02</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>13.73</v>
+        <v>1.37</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>11.94</v>
+        <v>1.19</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>14.08</v>
+        <v>1.41</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>19.94</v>
+        <v>1.99</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>54.41</v>
+        <v>5.44</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>8.779999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>19.34</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41658.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>11.6</v>
+        <v>1.16</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>8.58</v>
+        <v>0.86</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>24.33</v>
+        <v>2.43</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>20.31</v>
+        <v>2.03</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>9.08</v>
+        <v>0.91</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>37.65</v>
+        <v>3.77</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>13.52</v>
+        <v>1.35</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>6.18</v>
+        <v>0.62</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>9.4</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>9.85</v>
+        <v>0.98</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>10.26</v>
+        <v>1.03</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>2.85</v>
+        <v>0.29</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>8.76</v>
+        <v>0.88</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>12.87</v>
+        <v>1.29</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>7.27</v>
+        <v>0.73</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>127.66</v>
+        <v>12.77</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>24.92</v>
+        <v>2.49</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>8.27</v>
+        <v>0.83</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>16.91</v>
+        <v>1.69</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>8.75</v>
+        <v>0.87</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.16</v>
+        <v>0.12</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>18.04</v>
+        <v>1.8</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>7.23</v>
+        <v>0.72</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>6.25</v>
+        <v>0.63</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>7.38</v>
+        <v>0.74</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>10.57</v>
+        <v>1.06</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>34.27</v>
+        <v>3.43</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>4.59</v>
+        <v>0.46</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>10.16</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41658.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>23.67</v>
+        <v>2.37</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>17.67</v>
+        <v>1.77</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>50.7</v>
+        <v>5.07</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>42.09</v>
+        <v>4.21</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>18.59</v>
+        <v>1.86</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>69.84</v>
+        <v>6.98</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>28.2</v>
+        <v>2.82</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>12.76</v>
+        <v>1.28</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>19.21</v>
+        <v>1.92</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>20.43</v>
+        <v>2.04</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>21.46</v>
+        <v>2.15</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>5.89</v>
+        <v>0.59</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>18.25</v>
+        <v>1.83</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>26.38</v>
+        <v>2.64</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>15.13</v>
+        <v>1.51</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.65</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>271.87</v>
+        <v>27.19</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>51.27</v>
+        <v>5.13</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>17.01</v>
+        <v>1.7</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>34.75</v>
+        <v>3.48</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>18.16</v>
+        <v>1.82</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>2.41</v>
+        <v>0.24</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>34.34</v>
+        <v>3.43</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>14.95</v>
+        <v>1.5</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>13.04</v>
+        <v>1.3</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>15.37</v>
+        <v>1.54</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>21.66</v>
+        <v>2.17</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>63.21</v>
+        <v>6.32</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>9.59</v>
+        <v>0.96</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>21.1</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_226.xlsx
+++ b/DATA_goal/Junction_Flooding_226.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41658.34027777778</v>
+        <v>44907.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.52</v>
+        <v>2.02</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.37</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="E2" s="4" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="S2" s="4" t="n">
         <v>0.25</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="T2" s="4" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.31</v>
       </c>
-      <c r="G2" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.2</v>
+        <v>2.52</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.29</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.17</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.09</v>
+        <v>1.37</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.31</v>
+        <v>1.73</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.29</v>
+        <v>0.35</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.31</v>
+        <v>4.52</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41658.34722222222</v>
+        <v>44907.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.65</v>
+        <v>1.44</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.41</v>
+        <v>1.01</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.02</v>
+        <v>3.1</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.91</v>
+        <v>2.52</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.46</v>
+        <v>1.13</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.31</v>
+        <v>4.47</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.57</v>
+        <v>1.75</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.28</v>
+        <v>0.75</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.52</v>
+        <v>1.12</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.42</v>
+        <v>1.24</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.42</v>
+        <v>1.3</v>
       </c>
       <c r="N3" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>16.44</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>0.13</v>
       </c>
-      <c r="O3" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>5.52</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.11</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>1.1</v>
+        <v>4.07</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.19</v>
+        <v>0.58</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.44</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41658.35416666666</v>
+        <v>44907.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.63</v>
+        <v>1.76</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.24</v>
+        <v>2.75</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.91</v>
+        <v>0.99</v>
       </c>
       <c r="J4" s="4" t="n">
         <v>0.42</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.7</v>
+        <v>0.62</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.68</v>
+        <v>0.73</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.58</v>
+        <v>0.64</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.49</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>8.619999999999999</v>
+        <v>9</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="V4" s="4" t="n">
         <v>0.59</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.59</v>
+        <v>0.62</v>
       </c>
       <c r="Y4" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.08</v>
       </c>
-      <c r="Z4" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>1.99</v>
+        <v>2.51</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41658.36111111111</v>
+        <v>44907.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.5</v>
+        <v>2.26</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.34</v>
+        <v>1.66</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.9</v>
+        <v>4.9</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.78</v>
+        <v>4.02</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.38</v>
+        <v>1.78</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.55</v>
+        <v>6.59</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.5</v>
+        <v>2.73</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.24</v>
+        <v>1.21</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.37</v>
+        <v>1.97</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.37</v>
+        <v>2.07</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.11</v>
+        <v>0.57</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.32</v>
+        <v>1.77</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.52</v>
+        <v>2.51</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.27</v>
+        <v>1.49</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>4.52</v>
+        <v>26.16</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.98</v>
+        <v>4.93</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.34</v>
+        <v>1.63</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.67</v>
+        <v>3.32</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.33</v>
+        <v>1.75</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.26</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.75</v>
+        <v>3.24</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.28</v>
+        <v>1.44</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.23</v>
+        <v>1.28</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.28</v>
+        <v>1.5</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.44</v>
+        <v>2.06</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.4</v>
+        <v>5.97</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.17</v>
+        <v>0.92</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.38</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41658.36805555555</v>
+        <v>44907.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.08</v>
+        <v>8.17</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.79</v>
+        <v>5.86</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.02</v>
+        <v>0.71</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>2.2</v>
+        <v>17.69</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>1.85</v>
+        <v>14.37</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.84</v>
+        <v>6.43</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>2.97</v>
+        <v>29.45</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.22</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>4.34</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.87</v>
+        <v>6.35</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0.9</v>
+        <v>7.12</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>0.93</v>
+        <v>7.44</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.26</v>
+        <v>2.06</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.79</v>
+        <v>6.39</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.18</v>
+        <v>9.07</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.66</v>
+        <v>5.51</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.03</v>
+        <v>0.61</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.02</v>
+        <v>0.42</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>11.61</v>
+        <v>89.98999999999999</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>2.26</v>
+        <v>18.07</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.76</v>
+        <v>5.9</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>1.53</v>
+        <v>12.04</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.79</v>
+        <v>6.3</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.11</v>
+        <v>1.09</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>1.47</v>
+        <v>13.68</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.66</v>
+        <v>5.21</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.57</v>
+        <v>4.7</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.67</v>
+        <v>5.51</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>0.98</v>
+        <v>7.41</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>2.65</v>
+        <v>27.03</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.41</v>
+        <v>3.27</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41658.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41658.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>24.89</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>5.44</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.93</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41658.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>12.77</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41658.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>27.19</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>2.11</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41658.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>23.07</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>17.24</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>49.48</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>41.06</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>18.12</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>70.73999999999999</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>27.52</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>12.45</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>18.73</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>19.93</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>20.94</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>17.81</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>25.73</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>14.76</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>265.02</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>50.07</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>16.58</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>33.94</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>17.73</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>34.38</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>14.59</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>21.12</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>64.15000000000001</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>20.59</v>
+        <v>7.38</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_226.xlsx
+++ b/DATA_goal/Junction_Flooding_226.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44907.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.02</v>
+        <v>20.18</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.37</v>
+        <v>13.65</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.41</v>
+        <v>4.07</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.28</v>
+        <v>42.75</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.47</v>
+        <v>34.69</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.59</v>
+        <v>15.88</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.1</v>
+        <v>51.01</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.44</v>
+        <v>24.43</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.25</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.56</v>
+        <v>15.61</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.69</v>
+        <v>16.87</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.76</v>
+        <v>17.6</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.07</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.58</v>
+        <v>15.79</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.21</v>
+        <v>22.09</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.34</v>
+        <v>13.41</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.5</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.45</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>23.3</v>
+        <v>233</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.39</v>
+        <v>43.92</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.46</v>
+        <v>14.58</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.91</v>
+        <v>29.08</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.5</v>
+        <v>15</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.52</v>
+        <v>25.16</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.29</v>
+        <v>12.87</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.17</v>
+        <v>11.65</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.37</v>
+        <v>13.65</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.73</v>
+        <v>17.33</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.46</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.52</v>
+        <v>45.21</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.82</v>
+        <v>18.22</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44907.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.44</v>
+        <v>14.41</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.01</v>
+        <v>10.12</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.74</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.1</v>
+        <v>31.02</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.52</v>
+        <v>25.21</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.13</v>
+        <v>11.34</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.47</v>
+        <v>44.72</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.75</v>
+        <v>17.45</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.75</v>
+        <v>7.51</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.12</v>
+        <v>11.17</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.24</v>
+        <v>12.42</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.3</v>
+        <v>12.95</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.36</v>
+        <v>3.62</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.13</v>
+        <v>11.28</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.59</v>
+        <v>15.88</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.97</v>
+        <v>9.73</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.55</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.1</v>
+        <v>1.03</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>16.44</v>
+        <v>164.36</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.16</v>
+        <v>31.6</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.1</v>
+        <v>20.96</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.1</v>
+        <v>10.98</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.07</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.13</v>
+        <v>21.33</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.92</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.34</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.98</v>
+        <v>9.77</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.28</v>
+        <v>12.82</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.27</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.07</v>
+        <v>40.69</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.78</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.3</v>
+        <v>13.02</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44907.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.82</v>
+        <v>8.17</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.57</v>
+        <v>5.67</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.76</v>
+        <v>17.59</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.42</v>
+        <v>14.2</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.64</v>
+        <v>6.43</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.75</v>
+        <v>27.52</v>
       </c>
       <c r="I4" s="4" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="R4" s="4" t="n">
         <v>0.99</v>
       </c>
-      <c r="J4" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.1</v>
-      </c>
       <c r="S4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.58</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>9</v>
+        <v>89.97</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.8</v>
+        <v>17.98</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.59</v>
+        <v>5.9</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.19</v>
+        <v>11.86</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.62</v>
+        <v>6.23</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.25</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.28</v>
+        <v>12.77</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.77</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.58</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.73</v>
+        <v>7.28</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.51</v>
+        <v>25.08</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.24</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.74</v>
+        <v>7.38</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44907.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.26</v>
+        <v>22.58</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.66</v>
+        <v>16.62</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.31</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.9</v>
+        <v>49.01</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>4.02</v>
+        <v>40.23</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.78</v>
+        <v>17.77</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.59</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.73</v>
+        <v>27.34</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.21</v>
+        <v>12.12</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.8</v>
+        <v>18</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.97</v>
+        <v>19.69</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.07</v>
+        <v>20.72</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.57</v>
+        <v>5.68</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.77</v>
+        <v>17.67</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.51</v>
+        <v>25.13</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.49</v>
+        <v>14.89</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.87</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>26.16</v>
+        <v>261.64</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.93</v>
+        <v>49.35</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.63</v>
+        <v>16.31</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.32</v>
+        <v>33.18</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.75</v>
+        <v>17.46</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.26</v>
+        <v>2.63</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.24</v>
+        <v>32.37</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.44</v>
+        <v>14.41</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.28</v>
+        <v>12.79</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.5</v>
+        <v>15.03</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.06</v>
+        <v>20.59</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.97</v>
+        <v>59.68</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.92</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.04</v>
+        <v>20.39</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_226.xlsx
+++ b/DATA_goal/Junction_Flooding_226.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44907.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>20.18</v>
+        <v>20.178</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>13.65</v>
+        <v>13.652</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.07</v>
+        <v>4.068</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>42.75</v>
+        <v>42.752</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>34.69</v>
+        <v>34.691</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>15.88</v>
+        <v>15.879</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>51.01</v>
+        <v>51.007</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>24.43</v>
+        <v>24.432</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>10.25</v>
+        <v>10.251</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>15.61</v>
+        <v>15.607</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>16.87</v>
+        <v>16.868</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>17.6</v>
+        <v>17.597</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.07</v>
+        <v>5.069</v>
       </c>
       <c r="O2" s="4" t="n">
         <v>15.79</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>22.09</v>
+        <v>22.094</v>
       </c>
       <c r="Q2" s="4" t="n">
         <v>13.41</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.5</v>
+        <v>3.498</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.45</v>
+        <v>2.451</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>233</v>
+        <v>232.996</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>43.92</v>
+        <v>43.923</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>14.58</v>
+        <v>14.575</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>29.08</v>
+        <v>29.082</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>15</v>
+        <v>14.996</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>3.13</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>25.16</v>
+        <v>25.159</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>12.87</v>
+        <v>12.874</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>11.65</v>
+        <v>11.654</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>13.65</v>
+        <v>13.651</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>17.33</v>
+        <v>17.331</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.46</v>
+        <v>3.457</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>45.21</v>
+        <v>45.214</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.1</v>
+        <v>8.105</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>18.22</v>
+        <v>18.222</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44907.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>14.41</v>
+        <v>14.413</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>10.12</v>
+        <v>10.121</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.74</v>
+        <v>1.742</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>31.02</v>
+        <v>31.016</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>25.21</v>
+        <v>25.207</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>11.34</v>
+        <v>11.343</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>44.72</v>
+        <v>44.721</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>17.45</v>
+        <v>17.452</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.51</v>
+        <v>7.511</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>11.17</v>
+        <v>11.167</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>12.42</v>
+        <v>12.423</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>12.95</v>
+        <v>12.953</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.62</v>
+        <v>3.624</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>11.28</v>
+        <v>11.279</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>15.88</v>
+        <v>15.882</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>9.73</v>
+        <v>9.731</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>1.55</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.03</v>
+        <v>1.026</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>164.36</v>
+        <v>164.362</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>31.6</v>
+        <v>31.599</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>10.41</v>
+        <v>10.411</v>
       </c>
       <c r="W3" s="4" t="n">
         <v>20.96</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>10.98</v>
+        <v>10.979</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.07</v>
+        <v>2.069</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>21.33</v>
+        <v>21.326</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>9.196</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>8.34</v>
+        <v>8.343</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>9.77</v>
+        <v>9.772</v>
       </c>
       <c r="AD3" s="4" t="n">
         <v>12.82</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.27</v>
+        <v>1.266</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>40.69</v>
+        <v>40.689</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.78</v>
+        <v>5.779</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>13.02</v>
+        <v>13.016</v>
       </c>
     </row>
     <row r="4">
@@ -863,82 +863,82 @@
         <v>44907.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>8.17</v>
+        <v>8.167</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.67</v>
+        <v>5.675</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.04</v>
+        <v>1.045</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>17.59</v>
+        <v>17.591</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>14.2</v>
+        <v>14.195</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.43</v>
+        <v>6.428</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>27.52</v>
+        <v>27.522</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>9.888999999999999</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.24</v>
+        <v>4.238</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.22</v>
+        <v>6.217</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.07</v>
+        <v>7.075</v>
       </c>
       <c r="M4" s="4" t="n">
         <v>7.34</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.06</v>
+        <v>2.056</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.39</v>
+        <v>6.391</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>8.98</v>
+        <v>8.981</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.61</v>
+        <v>5.608</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.99</v>
+        <v>0.988</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.58</v>
+        <v>0.581</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>89.97</v>
+        <v>89.96899999999999</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>17.98</v>
+        <v>17.982</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.9</v>
+        <v>5.899</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>11.86</v>
+        <v>11.858</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.23</v>
+        <v>6.227</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.25</v>
+        <v>1.246</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>12.77</v>
+        <v>12.773</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.21</v>
+        <v>5.211</v>
       </c>
       <c r="AB4" s="4" t="n">
         <v>4.77</v>
@@ -947,19 +947,19 @@
         <v>5.58</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>7.28</v>
+        <v>7.283</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>25.08</v>
+        <v>25.081</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.24</v>
+        <v>3.237</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>7.38</v>
+        <v>7.376</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>20.39</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44907.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>8.17</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>17.69</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>14.37</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>6.43</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>29.45</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>9.890000000000001</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.39</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>89.98999999999999</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>18.07</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>13.68</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>27.03</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>7.38</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_226.xlsx
+++ b/DATA_goal/Junction_Flooding_226.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
@@ -970,100 +970,204 @@
         <v>22.58</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>16.62</v>
+        <v>16.622</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.31</v>
+        <v>1.312</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>49.01</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>40.23</v>
+        <v>40.228</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>17.77</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>65.90000000000001</v>
+        <v>65.904</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>27.34</v>
+        <v>27.341</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>12.12</v>
+        <v>12.119</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>18</v>
+        <v>18.004</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>19.69</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>20.72</v>
+        <v>20.719</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.68</v>
+        <v>5.675</v>
       </c>
       <c r="O5" s="4" t="n">
         <v>17.67</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>25.13</v>
+        <v>25.125</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>14.89</v>
+        <v>14.894</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.87</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.9</v>
+        <v>0.899</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>261.64</v>
+        <v>261.638</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>49.35</v>
+        <v>49.348</v>
       </c>
       <c r="V5" s="4" t="n">
         <v>16.31</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>33.18</v>
+        <v>33.177</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>17.46</v>
+        <v>17.464</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.63</v>
+        <v>2.629</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>32.37</v>
+        <v>32.367</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>14.41</v>
+        <v>14.407</v>
       </c>
       <c r="AB5" s="4" t="n">
         <v>12.79</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>15.03</v>
+        <v>15.029</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>20.59</v>
+        <v>20.592</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>59.68</v>
+        <v>59.682</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>9.196</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>20.39</v>
+        <v>20.392</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44907.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>8.17</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>17.69</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>14.37</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>29.45</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>89.98999999999999</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>18.07</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>13.68</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>27.03</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>7.38</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_226.xlsx
+++ b/DATA_goal/Junction_Flooding_226.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
@@ -970,204 +970,100 @@
         <v>22.58</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>16.622</v>
+        <v>16.62</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.312</v>
+        <v>1.31</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>49.01</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>40.228</v>
+        <v>40.23</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>17.77</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>65.904</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>27.341</v>
+        <v>27.34</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>12.119</v>
+        <v>12.12</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>18.004</v>
+        <v>18</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>19.69</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>20.719</v>
+        <v>20.72</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.675</v>
+        <v>5.68</v>
       </c>
       <c r="O5" s="4" t="n">
         <v>17.67</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>25.125</v>
+        <v>25.13</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>14.894</v>
+        <v>14.89</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.87</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.899</v>
+        <v>0.9</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>261.638</v>
+        <v>261.64</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>49.348</v>
+        <v>49.35</v>
       </c>
       <c r="V5" s="4" t="n">
         <v>16.31</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>33.177</v>
+        <v>33.18</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>17.464</v>
+        <v>17.46</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.629</v>
+        <v>2.63</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>32.367</v>
+        <v>32.37</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>14.407</v>
+        <v>14.41</v>
       </c>
       <c r="AB5" s="4" t="n">
         <v>12.79</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>15.029</v>
+        <v>15.03</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>20.592</v>
+        <v>20.59</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>59.682</v>
+        <v>59.68</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.196</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>20.392</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44907.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>8.17</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>17.69</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>14.37</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>6.43</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>29.45</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>9.890000000000001</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.39</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>89.98999999999999</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>18.07</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>13.68</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>27.03</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>7.38</v>
+        <v>20.39</v>
       </c>
     </row>
   </sheetData>
